--- a/管理/仕様＆企画/仕様/仕様書もくじ＆要件.xlsx
+++ b/管理/仕様＆企画/仕様/仕様書もくじ＆要件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CFF32-2EF0-4A09-9EBC-FB872641D438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C867A60-02B6-4933-BC48-A7F3DA4C6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3A9712-6EA3-4F81-A83A-E78ADAC04FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3A9712-6EA3-4F81-A83A-E78ADAC04FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="PGタスク" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>戦闘パート</t>
     <rPh sb="0" eb="2">
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0361CA-08B6-43F1-81C1-08E87DC320AA}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -870,6 +870,9 @@
       <c r="C7" t="s">
         <v>50</v>
       </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
@@ -878,6 +881,9 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
@@ -885,6 +891,9 @@
       </c>
       <c r="C9" t="s">
         <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">

--- a/管理/仕様＆企画/仕様/仕様書もくじ＆要件.xlsx
+++ b/管理/仕様＆企画/仕様/仕様書もくじ＆要件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C867A60-02B6-4933-BC48-A7F3DA4C6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC9935B-D7D8-4D57-B9F3-849A1EE25BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3A9712-6EA3-4F81-A83A-E78ADAC04FDD}"/>
+    <workbookView xWindow="165" yWindow="4155" windowWidth="25125" windowHeight="12210" xr2:uid="{0A3A9712-6EA3-4F81-A83A-E78ADAC04FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="PGタスク" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>戦闘パート</t>
     <rPh sb="0" eb="2">
@@ -428,6 +428,43 @@
   </si>
   <si>
     <t>Fight/Result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛/恋愛パートA</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイナー意見がほしいため</t>
+    <rPh sb="5" eb="7">
+      <t>イケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成中</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛/恋愛パートB</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンアイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -794,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0361CA-08B6-43F1-81C1-08E87DC320AA}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -803,7 +840,7 @@
     <col min="1" max="1" width="35.625" customWidth="1"/>
     <col min="2" max="2" width="56.25" customWidth="1"/>
     <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -905,88 +942,130 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>8</v>
       </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>40</v>
       </c>
